--- a/inst/extdata/matrix_test/stressor_response_matrix.xlsx
+++ b/inst/extdata/matrix_test/stressor_response_matrix.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70FE5DF-2EBE-4340-870A-1BB47B78ACC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE994697-00D1-4B94-B78D-D8A7938BA725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="516" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -481,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
@@ -504,10 +504,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,9 +527,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3471,7 +3468,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3483,7 +3480,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -3497,7 +3494,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -3511,7 +3508,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -3525,7 +3522,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -4063,7 +4060,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -4077,7 +4074,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -4091,7 +4088,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -4105,7 +4102,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="12" t="s">
